--- a/E192.xlsx
+++ b/E192.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="19155" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="E192" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Overall" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1542">
   <si>
     <t>1Ohm</t>
   </si>
@@ -4624,13 +4624,31 @@
   </si>
   <si>
     <t>98.8MOhm</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E48</t>
+  </si>
+  <si>
+    <t>E96</t>
+  </si>
+  <si>
+    <t>E192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4639,16 +4657,61 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0FFC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4656,12 +4719,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4965,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1527" workbookViewId="0">
-      <selection activeCell="A1536" sqref="A1536"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12680,12 +12855,2294 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>100</v>
+      </c>
+      <c r="B2" s="10">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13">
+        <v>100</v>
+      </c>
+      <c r="D2" s="16">
+        <v>100</v>
+      </c>
+      <c r="E2" s="19">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>100</v>
+      </c>
+      <c r="G2" s="7">
+        <v>220</v>
+      </c>
+      <c r="H2" s="10">
+        <v>220</v>
+      </c>
+      <c r="I2" s="13">
+        <v>220</v>
+      </c>
+      <c r="J2" s="16">
+        <v>215</v>
+      </c>
+      <c r="K2" s="19">
+        <v>215</v>
+      </c>
+      <c r="L2" s="6">
+        <v>215</v>
+      </c>
+      <c r="M2" s="7">
+        <v>470</v>
+      </c>
+      <c r="N2" s="10">
+        <v>470</v>
+      </c>
+      <c r="O2" s="13">
+        <v>470</v>
+      </c>
+      <c r="P2" s="16">
+        <v>464</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>464</v>
+      </c>
+      <c r="R2" s="6">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="6">
+        <v>101</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="6">
+        <v>218</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="6">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19">
+        <v>102</v>
+      </c>
+      <c r="F4" s="6">
+        <v>102</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19">
+        <v>221</v>
+      </c>
+      <c r="L4" s="6">
+        <v>221</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="19">
+        <v>475</v>
+      </c>
+      <c r="R4" s="6">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="6">
+        <v>104</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="6">
+        <v>223</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="6">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16">
+        <v>105</v>
+      </c>
+      <c r="E6" s="19">
+        <v>105</v>
+      </c>
+      <c r="F6" s="6">
+        <v>105</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16">
+        <v>226</v>
+      </c>
+      <c r="K6" s="19">
+        <v>226</v>
+      </c>
+      <c r="L6" s="6">
+        <v>226</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="16">
+        <v>487</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>487</v>
+      </c>
+      <c r="R6" s="6">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="6">
+        <v>106</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="6">
+        <v>229</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="6">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="19">
+        <v>107</v>
+      </c>
+      <c r="F8" s="6">
+        <v>107</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="19">
+        <v>232</v>
+      </c>
+      <c r="L8" s="6">
+        <v>232</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="19">
+        <v>499</v>
+      </c>
+      <c r="R8" s="6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="6">
+        <v>109</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="6">
+        <v>234</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="6">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13">
+        <v>110</v>
+      </c>
+      <c r="D10" s="16">
+        <v>110</v>
+      </c>
+      <c r="E10" s="19">
+        <v>110</v>
+      </c>
+      <c r="F10" s="6">
+        <v>110</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="13">
+        <v>240</v>
+      </c>
+      <c r="J10" s="16">
+        <v>237</v>
+      </c>
+      <c r="K10" s="19">
+        <v>237</v>
+      </c>
+      <c r="L10" s="6">
+        <v>237</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="13">
+        <v>510</v>
+      </c>
+      <c r="P10" s="16">
+        <v>511</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>511</v>
+      </c>
+      <c r="R10" s="6">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="6">
+        <v>111</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="6">
+        <v>240</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="6">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19">
+        <v>113</v>
+      </c>
+      <c r="F12" s="6">
+        <v>113</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="19">
+        <v>243</v>
+      </c>
+      <c r="L12" s="6">
+        <v>243</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="19">
+        <v>523</v>
+      </c>
+      <c r="R12" s="6">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="6">
+        <v>114</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="6">
+        <v>246</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="6">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16">
+        <v>115</v>
+      </c>
+      <c r="E14" s="19">
+        <v>115</v>
+      </c>
+      <c r="F14" s="6">
+        <v>115</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16">
+        <v>249</v>
+      </c>
+      <c r="K14" s="19">
+        <v>249</v>
+      </c>
+      <c r="L14" s="6">
+        <v>249</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="16">
+        <v>536</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>536</v>
+      </c>
+      <c r="R14" s="6">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="6">
+        <v>117</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="6">
+        <v>252</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="6">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19">
+        <v>118</v>
+      </c>
+      <c r="F16" s="6">
+        <v>118</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="19">
+        <v>255</v>
+      </c>
+      <c r="L16" s="6">
+        <v>255</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="19">
+        <v>549</v>
+      </c>
+      <c r="R16" s="6">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="6">
+        <v>120</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="6">
+        <v>258</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="6">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10">
+        <v>120</v>
+      </c>
+      <c r="C18" s="13">
+        <v>120</v>
+      </c>
+      <c r="D18" s="16">
+        <v>121</v>
+      </c>
+      <c r="E18" s="19">
+        <v>121</v>
+      </c>
+      <c r="F18" s="6">
+        <v>121</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10">
+        <v>270</v>
+      </c>
+      <c r="I18" s="13">
+        <v>270</v>
+      </c>
+      <c r="J18" s="16">
+        <v>261</v>
+      </c>
+      <c r="K18" s="19">
+        <v>261</v>
+      </c>
+      <c r="L18" s="6">
+        <v>261</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="10">
+        <v>560</v>
+      </c>
+      <c r="O18" s="13">
+        <v>560</v>
+      </c>
+      <c r="P18" s="16">
+        <v>562</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>562</v>
+      </c>
+      <c r="R18" s="6">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="6">
+        <v>123</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="6">
+        <v>264</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="6">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19">
+        <v>124</v>
+      </c>
+      <c r="F20" s="6">
+        <v>124</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="19">
+        <v>267</v>
+      </c>
+      <c r="L20" s="6">
+        <v>267</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="19">
+        <v>576</v>
+      </c>
+      <c r="R20" s="6">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="6">
+        <v>126</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="6">
+        <v>271</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="6">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="16">
+        <v>127</v>
+      </c>
+      <c r="E22" s="19">
+        <v>127</v>
+      </c>
+      <c r="F22" s="6">
+        <v>127</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="16">
+        <v>274</v>
+      </c>
+      <c r="K22" s="19">
+        <v>274</v>
+      </c>
+      <c r="L22" s="6">
+        <v>274</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="16">
+        <v>590</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>590</v>
+      </c>
+      <c r="R22" s="6">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="6">
+        <v>129</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="6">
+        <v>277</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="6">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19">
+        <v>130</v>
+      </c>
+      <c r="F24" s="6">
+        <v>130</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="19">
+        <v>280</v>
+      </c>
+      <c r="L24" s="6">
+        <v>280</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="19">
+        <v>604</v>
+      </c>
+      <c r="R24" s="6">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="6">
+        <v>132</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="6">
+        <v>284</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="6">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="13">
+        <v>130</v>
+      </c>
+      <c r="D26" s="16">
+        <v>133</v>
+      </c>
+      <c r="E26" s="19">
+        <v>133</v>
+      </c>
+      <c r="F26" s="6">
+        <v>133</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13">
+        <v>300</v>
+      </c>
+      <c r="J26" s="16">
+        <v>287</v>
+      </c>
+      <c r="K26" s="19">
+        <v>287</v>
+      </c>
+      <c r="L26" s="6">
+        <v>287</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="13">
+        <v>620</v>
+      </c>
+      <c r="P26" s="16">
+        <v>619</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>619</v>
+      </c>
+      <c r="R26" s="6">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="6">
+        <v>135</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="6">
+        <v>291</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="6">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="19">
+        <v>137</v>
+      </c>
+      <c r="F28" s="6">
+        <v>137</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="19">
+        <v>294</v>
+      </c>
+      <c r="L28" s="6">
+        <v>294</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="19">
+        <v>634</v>
+      </c>
+      <c r="R28" s="6">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="6">
+        <v>138</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="6">
+        <v>298</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="6">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="16">
+        <v>140</v>
+      </c>
+      <c r="E30" s="19">
+        <v>140</v>
+      </c>
+      <c r="F30" s="6">
+        <v>140</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="16">
+        <v>301</v>
+      </c>
+      <c r="K30" s="19">
+        <v>301</v>
+      </c>
+      <c r="L30" s="6">
+        <v>301</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="16">
+        <v>649</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>649</v>
+      </c>
+      <c r="R30" s="6">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="6">
+        <v>142</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="6">
+        <v>305</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="6">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="19">
+        <v>143</v>
+      </c>
+      <c r="F32" s="6">
+        <v>143</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="19">
+        <v>309</v>
+      </c>
+      <c r="L32" s="6">
+        <v>309</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="19">
+        <v>665</v>
+      </c>
+      <c r="R32" s="6">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="6">
+        <v>145</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="6">
+        <v>312</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="6">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>150</v>
+      </c>
+      <c r="B34" s="10">
+        <v>150</v>
+      </c>
+      <c r="C34" s="13">
+        <v>150</v>
+      </c>
+      <c r="D34" s="16">
+        <v>147</v>
+      </c>
+      <c r="E34" s="19">
+        <v>147</v>
+      </c>
+      <c r="F34" s="6">
+        <v>147</v>
+      </c>
+      <c r="G34" s="7">
+        <v>330</v>
+      </c>
+      <c r="H34" s="10">
+        <v>330</v>
+      </c>
+      <c r="I34" s="13">
+        <v>330</v>
+      </c>
+      <c r="J34" s="16">
+        <v>316</v>
+      </c>
+      <c r="K34" s="19">
+        <v>316</v>
+      </c>
+      <c r="L34" s="6">
+        <v>316</v>
+      </c>
+      <c r="M34" s="7">
+        <v>680</v>
+      </c>
+      <c r="N34" s="10">
+        <v>680</v>
+      </c>
+      <c r="O34" s="13">
+        <v>680</v>
+      </c>
+      <c r="P34" s="16">
+        <v>681</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>681</v>
+      </c>
+      <c r="R34" s="6">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="6">
+        <v>149</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="6">
+        <v>320</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="6">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="19">
+        <v>150</v>
+      </c>
+      <c r="F36" s="6">
+        <v>150</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="19">
+        <v>324</v>
+      </c>
+      <c r="L36" s="6">
+        <v>324</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="19">
+        <v>698</v>
+      </c>
+      <c r="R36" s="6">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="6">
+        <v>152</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="6">
+        <v>328</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="6">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="16">
+        <v>154</v>
+      </c>
+      <c r="E38" s="19">
+        <v>154</v>
+      </c>
+      <c r="F38" s="6">
+        <v>154</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="16">
+        <v>332</v>
+      </c>
+      <c r="K38" s="19">
+        <v>332</v>
+      </c>
+      <c r="L38" s="6">
+        <v>332</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="16">
+        <v>715</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>715</v>
+      </c>
+      <c r="R38" s="6">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="6">
+        <v>156</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="6">
+        <v>336</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="6">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19">
+        <v>158</v>
+      </c>
+      <c r="F40" s="6">
+        <v>158</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="19">
+        <v>340</v>
+      </c>
+      <c r="L40" s="6">
+        <v>340</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="19">
+        <v>732</v>
+      </c>
+      <c r="R40" s="6">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="6">
+        <v>160</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="6">
+        <v>344</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="6">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="13">
+        <v>160</v>
+      </c>
+      <c r="D42" s="16">
+        <v>162</v>
+      </c>
+      <c r="E42" s="19">
+        <v>162</v>
+      </c>
+      <c r="F42" s="6">
+        <v>162</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="13">
+        <v>360</v>
+      </c>
+      <c r="J42" s="16">
+        <v>348</v>
+      </c>
+      <c r="K42" s="19">
+        <v>348</v>
+      </c>
+      <c r="L42" s="6">
+        <v>348</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="13">
+        <v>750</v>
+      </c>
+      <c r="P42" s="16">
+        <v>750</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>750</v>
+      </c>
+      <c r="R42" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="6">
+        <v>164</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="6">
+        <v>352</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="6">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="19">
+        <v>165</v>
+      </c>
+      <c r="F44" s="6">
+        <v>165</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="19">
+        <v>357</v>
+      </c>
+      <c r="L44" s="6">
+        <v>357</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="19">
+        <v>768</v>
+      </c>
+      <c r="R44" s="6">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="6">
+        <v>167</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="6">
+        <v>361</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="6">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="16">
+        <v>169</v>
+      </c>
+      <c r="E46" s="19">
+        <v>169</v>
+      </c>
+      <c r="F46" s="6">
+        <v>169</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="16">
+        <v>365</v>
+      </c>
+      <c r="K46" s="19">
+        <v>365</v>
+      </c>
+      <c r="L46" s="6">
+        <v>365</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="16">
+        <v>787</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>787</v>
+      </c>
+      <c r="R46" s="6">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="6">
+        <v>172</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="6">
+        <v>370</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="6">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="19">
+        <v>174</v>
+      </c>
+      <c r="F48" s="6">
+        <v>174</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="19">
+        <v>374</v>
+      </c>
+      <c r="L48" s="6">
+        <v>374</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="19">
+        <v>806</v>
+      </c>
+      <c r="R48" s="6">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="6">
+        <v>176</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="6">
+        <v>379</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="6">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="10">
+        <v>180</v>
+      </c>
+      <c r="C50" s="13">
+        <v>180</v>
+      </c>
+      <c r="D50" s="16">
+        <v>178</v>
+      </c>
+      <c r="E50" s="19">
+        <v>178</v>
+      </c>
+      <c r="F50" s="6">
+        <v>178</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="10">
+        <v>390</v>
+      </c>
+      <c r="I50" s="13">
+        <v>390</v>
+      </c>
+      <c r="J50" s="16">
+        <v>383</v>
+      </c>
+      <c r="K50" s="19">
+        <v>383</v>
+      </c>
+      <c r="L50" s="6">
+        <v>383</v>
+      </c>
+      <c r="M50" s="8"/>
+      <c r="N50" s="10">
+        <v>820</v>
+      </c>
+      <c r="O50" s="13">
+        <v>820</v>
+      </c>
+      <c r="P50" s="16">
+        <v>825</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>825</v>
+      </c>
+      <c r="R50" s="6">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="6">
+        <v>180</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="6">
+        <v>388</v>
+      </c>
+      <c r="M51" s="8"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="6">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="19">
+        <v>182</v>
+      </c>
+      <c r="F52" s="6">
+        <v>182</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="19">
+        <v>392</v>
+      </c>
+      <c r="L52" s="6">
+        <v>392</v>
+      </c>
+      <c r="M52" s="8"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="19">
+        <v>845</v>
+      </c>
+      <c r="R52" s="6">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="6">
+        <v>184</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="6">
+        <v>397</v>
+      </c>
+      <c r="M53" s="8"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="6">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="16">
+        <v>187</v>
+      </c>
+      <c r="E54" s="19">
+        <v>187</v>
+      </c>
+      <c r="F54" s="6">
+        <v>187</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="16">
+        <v>402</v>
+      </c>
+      <c r="K54" s="19">
+        <v>402</v>
+      </c>
+      <c r="L54" s="6">
+        <v>402</v>
+      </c>
+      <c r="M54" s="8"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="16">
+        <v>866</v>
+      </c>
+      <c r="Q54" s="19">
+        <v>866</v>
+      </c>
+      <c r="R54" s="6">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="6">
+        <v>189</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="6">
+        <v>407</v>
+      </c>
+      <c r="M55" s="8"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="6">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="19">
+        <v>191</v>
+      </c>
+      <c r="F56" s="6">
+        <v>191</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="19">
+        <v>412</v>
+      </c>
+      <c r="L56" s="6">
+        <v>412</v>
+      </c>
+      <c r="M56" s="8"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="19">
+        <v>887</v>
+      </c>
+      <c r="R56" s="6">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="6">
+        <v>193</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="6">
+        <v>417</v>
+      </c>
+      <c r="M57" s="8"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="6">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="13">
+        <v>200</v>
+      </c>
+      <c r="D58" s="16">
+        <v>196</v>
+      </c>
+      <c r="E58" s="19">
+        <v>196</v>
+      </c>
+      <c r="F58" s="6">
+        <v>196</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="13">
+        <v>430</v>
+      </c>
+      <c r="J58" s="16">
+        <v>422</v>
+      </c>
+      <c r="K58" s="19">
+        <v>422</v>
+      </c>
+      <c r="L58" s="6">
+        <v>422</v>
+      </c>
+      <c r="M58" s="8"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="13">
+        <v>910</v>
+      </c>
+      <c r="P58" s="16">
+        <v>909</v>
+      </c>
+      <c r="Q58" s="19">
+        <v>909</v>
+      </c>
+      <c r="R58" s="6">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="6">
+        <v>198</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="6">
+        <v>427</v>
+      </c>
+      <c r="M59" s="8"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="6">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="19">
+        <v>200</v>
+      </c>
+      <c r="F60" s="6">
+        <v>200</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="19">
+        <v>432</v>
+      </c>
+      <c r="L60" s="6">
+        <v>432</v>
+      </c>
+      <c r="M60" s="8"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="19">
+        <v>931</v>
+      </c>
+      <c r="R60" s="6">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="6">
+        <v>203</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="6">
+        <v>437</v>
+      </c>
+      <c r="M61" s="8"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="6">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="16">
+        <v>205</v>
+      </c>
+      <c r="E62" s="19">
+        <v>205</v>
+      </c>
+      <c r="F62" s="6">
+        <v>205</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="16">
+        <v>442</v>
+      </c>
+      <c r="K62" s="19">
+        <v>442</v>
+      </c>
+      <c r="L62" s="6">
+        <v>442</v>
+      </c>
+      <c r="M62" s="8"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="16">
+        <v>953</v>
+      </c>
+      <c r="Q62" s="19">
+        <v>953</v>
+      </c>
+      <c r="R62" s="6">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="6">
+        <v>208</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="6">
+        <v>448</v>
+      </c>
+      <c r="M63" s="8"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="6">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="19">
+        <v>210</v>
+      </c>
+      <c r="F64" s="6">
+        <v>210</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="19">
+        <v>453</v>
+      </c>
+      <c r="L64" s="6">
+        <v>453</v>
+      </c>
+      <c r="M64" s="8"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="19">
+        <v>976</v>
+      </c>
+      <c r="R64" s="6">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="6">
+        <v>213</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="6">
+        <v>459</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="6">
+        <v>988</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="186">
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="P62:P65"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="N50:N65"/>
+    <mergeCell ref="O50:O57"/>
+    <mergeCell ref="P50:P53"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="P54:P57"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="O58:O65"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="P38:P41"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="O42:O49"/>
+    <mergeCell ref="P42:P45"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="P46:P49"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="M34:M65"/>
+    <mergeCell ref="N34:N49"/>
+    <mergeCell ref="O34:O41"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="N18:N33"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="P22:P25"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="O26:O33"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="M2:M33"/>
+    <mergeCell ref="N2:N17"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="H50:H65"/>
+    <mergeCell ref="I50:I57"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="I58:I65"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="I42:I49"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G34:G65"/>
+    <mergeCell ref="H34:H49"/>
+    <mergeCell ref="I34:I41"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="H18:H33"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I26:I33"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="G2:G33"/>
+    <mergeCell ref="H2:H17"/>
+    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I10:I17"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="B50:B65"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A34:A65"/>
+    <mergeCell ref="B34:B49"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C10:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>